--- a/jauswertung-misc/src/test/resources/competitions/Rekordwerte 2022.xlsx
+++ b/jauswertung-misc/src/test/resources/competitions/Rekordwerte 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\source\eclipse-workspace\JAuswertung-Project\jauswertung-misc\src\test\resources\competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548A9EEF-5423-47E1-9BF6-F2CA85E4BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8CBD3-90CD-46A1-B7F6-1A2687B5AAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="240">
   <si>
     <t>Wettkampf</t>
   </si>
@@ -984,199 +984,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1538,6 +1346,210 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1952,10 +1964,10 @@
   </sheetPr>
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -1969,15 +1981,15 @@
     <col min="7" max="7" width="11.7265625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="14.26953125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="4.453125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="11.81640625" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="5.26953125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="35.7265625" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.1796875" style="49" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="25.81640625" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.453125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11.81640625" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="5.26953125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="35.7265625" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.1796875" style="49" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="25.81640625" style="24" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="9.54296875" style="25" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="17" max="17" width="14.26953125" style="26" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="18" max="18" width="4" style="6" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.26953125" style="26" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="11" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11.7265625" style="15" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="21" max="21" width="7.453125" style="15" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -3510,7 +3522,9 @@
         <f t="shared" si="0"/>
         <v>130.49</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="35" t="s">
+        <v>238</v>
+      </c>
       <c r="J18" t="s">
         <v>129</v>
       </c>
@@ -3563,7 +3577,7 @@
       </c>
       <c r="Z18" s="14" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="14" t="b">
         <f t="shared" si="7"/>
@@ -10804,215 +10818,225 @@
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:AC94">
-    <cfRule type="expression" dxfId="96" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="57" stopIfTrue="1">
       <formula>IF(S3="",FALSE,S3&lt;&gt;TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD94">
-    <cfRule type="cellIs" dxfId="95" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="54" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="55" operator="lessThan">
       <formula>-0.000000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="56" operator="between">
       <formula>-0.000000000001</formula>
       <formula>0.000000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC94">
-    <cfRule type="expression" dxfId="92" priority="51">
+    <cfRule type="expression" dxfId="94" priority="53">
       <formula>IF(AB3=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:Q94 A2:H2 A4:H6 A3:G3 A8:H13 A7:G7 A15:H21 A14:G14 A23:H25 A22:G22 A27:H29 A26:G26 A31:H37 A30:G30 A39:H41 A38:G38 A43:H49 A42:G42 A51:H53 A50:G50 A55:H57 A54:G54 A59:H61 A58:G58 A63:H65 A62:G62 A67:H69 A66:G66 A71:H73 A70:G70 A75:H77 A74:G74 A79:H81 A78:G78 A83:H94 A82:G82">
-    <cfRule type="expression" dxfId="91" priority="39">
+  <conditionalFormatting sqref="J2:Q94 A2:H2 A4:H6 A3:G3 A8:H13 A7:G7 A15:H17 A14:G14 A23:H25 A22:G22 A27:H29 A26:G26 A31:H37 A30:G30 A39:H41 A38:G38 A43:H49 A42:G42 A51:H53 A50:G50 A55:H57 A54:G54 A59:H61 A58:G58 A63:H65 A62:G62 A67:H69 A66:G66 A71:H73 A70:G70 A75:H77 A74:G74 A79:H81 A78:G78 A83:H94 A82:G82 A19:H21 A18:G18">
+    <cfRule type="expression" dxfId="93" priority="41">
       <formula>IF($L2&lt;&gt;"w",$L2&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:H6 F3:G3 F8:H13 F7:G7 F15:H21 F14:G14 F23:H25 F22:G22 F27:H29 F26:G26 F31:H37 F30:G30 F39:H41 F38:G38 F43:H49 F42:G42 F51:H53 F50:G50 F55:H57 F54:G54 F59:H61 F58:G58 F63:H65 F62:G62 F67:H69 F66:G66 F71:H73 F70:G70 F75:H77 F74:G74 F79:H81 F78:G78 F83:H94 F82:G82">
-    <cfRule type="expression" dxfId="90" priority="38">
+  <conditionalFormatting sqref="F4:H6 F3:G3 F8:H13 F7:G7 F15:H17 F14:G14 F23:H25 F22:G22 F27:H29 F26:G26 F31:H37 F30:G30 F39:H41 F38:G38 F43:H49 F42:G42 F51:H53 F50:G50 F55:H57 F54:G54 F59:H61 F58:G58 F63:H65 F62:G62 F67:H69 F66:G66 F71:H73 F70:G70 F75:H77 F74:G74 F79:H81 F78:G78 F83:H94 F82:G82 F19:H21 F18:G18">
+    <cfRule type="expression" dxfId="92" priority="40">
       <formula>X3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:E94">
-    <cfRule type="expression" dxfId="89" priority="149">
+    <cfRule type="expression" dxfId="91" priority="151">
       <formula>S3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82 F78 F74 F70 F66 F62 F58 F54 F50 F46 F42 F38 F34 F30 F26 F22 F18 F14 F7 F3">
-    <cfRule type="expression" dxfId="88" priority="35">
+    <cfRule type="expression" dxfId="90" priority="37">
       <formula>X3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="89" priority="36">
       <formula>IF($C3&lt;&gt;"w",$C3&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="88" priority="35">
       <formula>Z3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="87" priority="34">
       <formula>IF($C7&lt;&gt;"w",$C7&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="86" priority="33">
       <formula>Z7&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="85" priority="32">
       <formula>IF($C14&lt;&gt;"w",$C14&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="84" priority="31">
       <formula>Z14&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="83" priority="30">
       <formula>IF($C22&lt;&gt;"w",$C22&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>Z22&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="81" priority="28">
       <formula>IF($C26&lt;&gt;"w",$C26&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="80" priority="27">
       <formula>Z26&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="79" priority="26">
       <formula>IF($C30&lt;&gt;"w",$C30&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="78" priority="25">
       <formula>Z30&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="77" priority="24">
       <formula>IF($C38&lt;&gt;"w",$C38&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>Z38&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="75" priority="22">
       <formula>IF($C42&lt;&gt;"w",$C42&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="74" priority="21">
       <formula>Z42&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="73" priority="20">
       <formula>IF($C50&lt;&gt;"w",$C50&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>Z50&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>IF($C54&lt;&gt;"w",$C54&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="70" priority="17">
       <formula>Z54&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="69" priority="16">
       <formula>IF($C58&lt;&gt;"w",$C58&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>Z58&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>IF($C62&lt;&gt;"w",$C62&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>Z62&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>IF($C66&lt;&gt;"w",$C66&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="64" priority="11">
       <formula>Z66&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="63" priority="10">
       <formula>IF($C70&lt;&gt;"w",$C70&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="62" priority="9">
       <formula>Z70&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>IF($C74&lt;&gt;"w",$C74&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>Z74&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>IF($C78&lt;&gt;"w",$C78&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>Z78&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>IF($C82&lt;&gt;"w",$C82&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="56" priority="3">
+      <formula>Z82&lt;&gt;TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF($C18&lt;&gt;"w",$C18&lt;&gt;"",FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Z82&lt;&gt;TRUE</formula>
+      <formula>Z18&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11036,10 +11060,10 @@
   </sheetPr>
   <dimension ref="A1:AE144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -24655,266 +24679,266 @@
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:AC138">
-    <cfRule type="expression" dxfId="87" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="125" stopIfTrue="1">
       <formula>IF(S3="",FALSE,S3&lt;&gt;TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD138">
-    <cfRule type="cellIs" dxfId="86" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="65" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="lessThan">
       <formula>-0.000000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="122" operator="between">
       <formula>-0.000000000001</formula>
       <formula>0.000000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:Q23 J27:Q138">
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="51" priority="70">
       <formula>IF($L2&lt;&gt;"w",$L2&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H15 A18:B19 A21:H26 B27:D31 G27:H31 B39:H39 A17:H17 B16:H16 E18:H20 B20 A33:H38 B32:H32 A51:H53 A55:H57 B54:H54 B41:H41 B40:D40 G40:H40 B43:H50 B42:D42 G42:H42 B58:H58 A59:H138">
-    <cfRule type="expression" dxfId="82" priority="69">
+    <cfRule type="expression" dxfId="50" priority="69">
       <formula>IF($C1&lt;&gt;"w",$C1&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC138">
-    <cfRule type="expression" dxfId="81" priority="62">
+    <cfRule type="expression" dxfId="49" priority="62">
       <formula>IF(AB3=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H15 A18:B19 A21:H26 B27:D31 G27:H31 B39:H39 A17:H17 B16:H16 E18:H20 B20 A33:H38 B32:H32 A51:H53 A55:H57 B54:H54 B41:H41 B40:D40 G40:H40 B43:H50 B42:D42 G42:H42 B58:H58 A59:H138">
-    <cfRule type="expression" dxfId="80" priority="59">
+    <cfRule type="expression" dxfId="48" priority="59">
       <formula>S3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S139:AC144">
-    <cfRule type="expression" dxfId="79" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="58" stopIfTrue="1">
       <formula>IF(S139="",FALSE,S139&lt;&gt;TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD139:AD144">
-    <cfRule type="cellIs" dxfId="78" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="lessThan">
       <formula>-0.000000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="between">
       <formula>-0.000000000001</formula>
       <formula>0.000000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139:Q144">
-    <cfRule type="expression" dxfId="75" priority="56">
+    <cfRule type="expression" dxfId="43" priority="56">
       <formula>IF($L139&lt;&gt;"w",$L139&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:H141 B142:H144">
-    <cfRule type="expression" dxfId="74" priority="55">
+    <cfRule type="expression" dxfId="42" priority="55">
       <formula>IF($C139&lt;&gt;"w",$C139&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB139:AC144">
-    <cfRule type="expression" dxfId="73" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>IF(AB139=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:H141 B142:H144">
-    <cfRule type="expression" dxfId="72" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>S139&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="71" priority="48">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>IF($L31&lt;&gt;"w",$L31&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="70" priority="47">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>S31&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39 A44:A50 A54 A41">
-    <cfRule type="expression" dxfId="69" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>IF($C39&lt;&gt;"w",$C39&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39 A44:A50 A54 A41">
-    <cfRule type="expression" dxfId="68" priority="45">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>S39&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="67" priority="44">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>IF($L43&lt;&gt;"w",$L43&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="66" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>S43&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:A144">
-    <cfRule type="expression" dxfId="65" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>IF($C142&lt;&gt;"w",$C142&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:A144">
-    <cfRule type="expression" dxfId="64" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>S142&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D20">
-    <cfRule type="expression" dxfId="63" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>U18&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D20">
-    <cfRule type="expression" dxfId="62" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>IF($C18&lt;&gt;"w",$C18&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:Q26">
-    <cfRule type="expression" dxfId="61" priority="36">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>IF($L24&lt;&gt;"w",$L24&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27 E29:F31 F28">
-    <cfRule type="expression" dxfId="60" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>IF($C27&lt;&gt;"w",$C27&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27 E29:F31 F28">
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>W27&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A29:A30">
-    <cfRule type="expression" dxfId="58" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>IF($C27&lt;&gt;"w",$C27&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A29:A30">
-    <cfRule type="expression" dxfId="57" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>S27&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="56" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>IF($C28&lt;&gt;"w",$C28&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="55" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>W28&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="54" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>IF($C28&lt;&gt;"w",$C28&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="53" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>S28&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="52" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>IF($C16&lt;&gt;"w",$C16&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>S16&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="50" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>IF($C20&lt;&gt;"w",$C20&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="49" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>S20&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="48" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>IF($C32&lt;&gt;"w",$C32&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="47" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>S32&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="46" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>IF($C58&lt;&gt;"w",$C58&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="45" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>S58&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:Q1">
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>IF($C1&lt;&gt;"w",$C1&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>IF($C40&lt;&gt;"w",$C40&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>X40&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>IF($C40&lt;&gt;"w",$C40&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>W40&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>IF($C40&lt;&gt;"w",$C40&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="38" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>S40&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>IF($C42&lt;&gt;"w",$C42&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>W42&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>IF($C42&lt;&gt;"w",$C42&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>S42&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
